--- a/Data/EC/NIT-8000350232.xlsx
+++ b/Data/EC/NIT-8000350232.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23E7C0EA-C716-4B00-B9A6-40879E59D91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B8A9A8F-6729-49A4-ABD8-D731990ED0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14E7EFA8-32FC-4613-A2AB-954B8EB77284}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{65B03EAA-65DB-4813-A151-3BCEF1973F0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3345D1A-4916-4358-43E5-C5118EBF6231}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAD3A2D2-37C6-7222-058A-C8BABF731739}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -785,7 +785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305D5559-3826-4116-B56B-6DE9250217BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805405AA-841F-4E5A-A8B4-1CBD0CB8039B}">
   <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
